--- a/11-02-25 to 11-08-25 Madison Schedule.xlsx
+++ b/11-02-25 to 11-08-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y81"/>
+  <dimension ref="A1:Y80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1215,8 +1215,7 @@
       <c r="O18" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Red Camry,
-Trainer</t>
+Red Camry</t>
         </is>
       </c>
       <c r="P18" t="inlineStr"/>
@@ -1233,8 +1232,7 @@
       <c r="S18" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Silver Van,
-Trainer</t>
+Silver Van</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
@@ -1858,13 +1856,12 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Eric</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>@ Store,
-work w/ Ashley</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
@@ -1940,12 +1937,13 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
@@ -2015,13 +2013,12 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
@@ -2032,13 +2029,12 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Eric</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>@ Store,
-work w/ Ashley</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
@@ -2097,7 +2093,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2113,7 +2109,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -2153,21 +2149,9 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2176,7 +2160,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -2223,7 +2207,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -2277,24 +2261,16 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
@@ -2330,7 +2306,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>SALE INVENTORY</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2373,13 +2349,17 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>SALE INVENTORY</t>
+          <t>CONTACT IS STEVE (SELLER)</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
@@ -2426,7 +2406,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>CONTACT IS STEVE (SELLER)</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2434,7 +2414,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2446,13 +2426,12 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Eric</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>@ Store,
-work w/ Justin</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X36" t="inlineStr"/>
@@ -2482,7 +2461,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>BP (JERRY'S AUTO), BEAVER DAM</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2490,7 +2469,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FOX BROS PIGGLY WIGGLY #083, BEAVER DAM</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2502,12 +2481,13 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+work w/ Justin</t>
         </is>
       </c>
       <c r="X37" t="inlineStr"/>
@@ -2537,7 +2517,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>BP (JERRY'S AUTO), BEAVER DAM</t>
+          <t>700 N. SPRING ST</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2545,27 +2525,14 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>FOX BROS PIGGLY WIGGLY #083, BEAVER DAM</t>
+          <t>810 PARK AVE</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>@ Store,
-work w/ Justin</t>
-        </is>
-      </c>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
     </row>
@@ -2589,7 +2556,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>700 N. SPRING ST</t>
+          <t>https://maps.app.goo.gl/Hdvtz4TXhk1mwJ4j8</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2597,7 +2564,7 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>810 PARK AVE</t>
+          <t>https://goo.gl/maps/y8AoS99KUVU2</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2638,23 +2605,23 @@
       </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/Hdvtz4TXhk1mwJ4j8</t>
-        </is>
-      </c>
+      <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/y8AoS99KUVU2</t>
+          <t>PARTIAL RESET (ONE SIDE OF FROZEN)-REMAPPED</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>*THEY NOW HAVE SIGNS UP NO STREET PARKING</t>
+        </is>
+      </c>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
@@ -2684,22 +2651,30 @@
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>PARTIAL RESET (ONE SIDE OF FROZEN)-REMAPPED</t>
-        </is>
-      </c>
+      <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
-          <t>*THEY NOW HAVE SIGNS UP NO STREET PARKING</t>
+          <t>12:00 PM START</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2729,28 +2704,40 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">@ Store  </t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
+        <is>
           <t>1)</t>
         </is>
       </c>
-      <c r="N42" t="inlineStr">
+      <c r="R42" t="inlineStr">
         <is>
           <t>Sarah</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr">
+      <c r="S42" t="inlineStr">
         <is>
           <t>@ Store, Equip</t>
         </is>
       </c>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>12:00 PM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2790,42 +2777,30 @@
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">@ Store  </t>
-        </is>
-      </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Bri</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1119, MENOMONEE FALLS</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -2867,12 +2842,12 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -2884,7 +2859,7 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1119, MENOMONEE FALLS</t>
+          <t>N93 W14575 WHITTAKER WAY</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -2921,17 +2896,21 @@
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -2943,7 +2922,7 @@
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
-          <t>N93 W14575 WHITTAKER WAY</t>
+          <t>https://goo.gl/maps/CLqauUgd2u12</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -2974,19 +2953,19 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -2998,7 +2977,7 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/CLqauUgd2u12</t>
+          <t>Area tickets are used here, Supv will need to arrive one hour early at 10:30 to post them</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -3029,19 +3008,19 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #39, ALPINE MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -3053,7 +3032,7 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Area tickets are used here, Supv will need to arrive one hour early at 10:30 to post them</t>
+          <t xml:space="preserve">Make sure to bring folders for both sites - *notes* - Items over $1,000 count as tenths - Count big dollar sections 1st for auditing. </t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -3084,19 +3063,19 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>KELLEY #39, ALPINE MOBIL, ROCKFORD</t>
+          <t>321 N ALPINE ROAD</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -3108,7 +3087,7 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Make sure to bring folders for both sites - *notes* - Items over $1,000 count as tenths - Count big dollar sections 1st for auditing. </t>
+          <t>Make sure to tag each location when completed. Try to start large Drawer sections early - they take a lot of time.</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -3131,19 +3110,19 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>321 N ALPINE ROAD</t>
+          <t>https://goo.gl/maps/TGuxbxW7qpk</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -3155,7 +3134,7 @@
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Make sure to tag each location when completed. Try to start large Drawer sections early - they take a lot of time.</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -3178,19 +3157,19 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TGuxbxW7qpk</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -3202,7 +3181,7 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1143 MENOMONEE FALLS</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -3223,33 +3202,17 @@
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
-        </is>
-      </c>
+      <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1143 MENOMONEE FALLS</t>
+          <t xml:space="preserve">N93 W14575 WHITTAKER WAY </t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
@@ -3269,9 +3232,21 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
@@ -3280,7 +3255,7 @@
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr">
         <is>
-          <t xml:space="preserve">N93 W14575 WHITTAKER WAY </t>
+          <t>https://goo.gl/maps/AJgcVD6yx75Kq3yS6</t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
@@ -3302,28 +3277,28 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>Optima, Equip</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/AJgcVD6yx75Kq3yS6</t>
+          <t>Need to go up a flight of stairs for this site</t>
         </is>
       </c>
       <c r="W53" t="inlineStr"/>
@@ -3345,12 +3320,12 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3358,7 +3333,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3366,7 +3341,7 @@
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Need to go up a flight of stairs for this site</t>
+          <t>GIVE THEM COMP FILES INSTEAD OF PRINTOUTS AT END OF STORE - ALL 3 EXPORT FILES</t>
         </is>
       </c>
       <c r="W54" t="inlineStr"/>
@@ -3388,12 +3363,12 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3401,7 +3376,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #65, GENOA MOBIL</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3409,7 +3384,7 @@
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr">
         <is>
-          <t>GIVE THEM COMP FILES INSTEAD OF PRINTOUTS AT END OF STORE - ALL 3 EXPORT FILES</t>
+          <t>*10:15 am IL office leave time</t>
         </is>
       </c>
       <c r="W55" t="inlineStr"/>
@@ -3431,12 +3406,12 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3444,17 +3419,13 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>KELLEY #65, GENOA MOBIL</t>
+          <t>439 W MAIN ST</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>*10:15 am IL office leave time</t>
-        </is>
-      </c>
+      <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
@@ -3474,12 +3445,12 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3487,14 +3458,26 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>439 W MAIN ST</t>
+          <t>https://goo.gl/maps/WCT4tA6ALqq</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
     </row>
@@ -3513,12 +3496,12 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Mike G</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3526,24 +3509,24 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/WCT4tA6ALqq</t>
+          <t>*IL Meet is 5:45 am at IL Office</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Optima</t>
         </is>
       </c>
       <c r="X58" t="inlineStr"/>
@@ -3564,12 +3547,12 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Mike G</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3577,24 +3560,24 @@
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:45 am at IL Office</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>Optima</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X59" t="inlineStr"/>
@@ -3613,34 +3596,22 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
-        </is>
-      </c>
+      <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
@@ -3668,18 +3639,30 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
@@ -3709,28 +3692,29 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Mike G</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store,
+Until 9:30</t>
         </is>
       </c>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
@@ -3760,29 +3744,29 @@
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>@ Store,
-Until 9:30</t>
+          <t>Driver,
+Red Camry</t>
         </is>
       </c>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
@@ -3812,29 +3796,24 @@
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W64" t="inlineStr">
@@ -3864,24 +3843,28 @@
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Laci</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr"/>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
@@ -3909,37 +3892,13 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="V66" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="W66" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
     </row>
@@ -3992,7 +3951,11 @@
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
@@ -4021,7 +3984,7 @@
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W69" t="inlineStr"/>
@@ -4052,7 +4015,7 @@
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FOX BROS PIGGLY WIGGLY #086, PORT WASHINGTON</t>
         </is>
       </c>
       <c r="W70" t="inlineStr"/>
@@ -4083,7 +4046,7 @@
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr">
         <is>
-          <t>FOX BROS PIGGLY WIGGLY #086, PORT WASHINGTON</t>
+          <t>101 W SEVEN HILLS RD</t>
         </is>
       </c>
       <c r="W71" t="inlineStr"/>
@@ -4114,7 +4077,7 @@
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr">
         <is>
-          <t>101 W SEVEN HILLS RD</t>
+          <t>https://goo.gl/maps/QTeeYs5i3hE2</t>
         </is>
       </c>
       <c r="W72" t="inlineStr"/>
@@ -4143,11 +4106,7 @@
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/QTeeYs5i3hE2</t>
-        </is>
-      </c>
+      <c r="V73" t="inlineStr"/>
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
@@ -4173,9 +4132,21 @@
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>Bri</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
     </row>
@@ -4202,17 +4173,17 @@
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="W75" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X75" t="inlineStr"/>
@@ -4241,17 +4212,18 @@
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Celina</t>
         </is>
       </c>
       <c r="W76" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+work w/ Jerry</t>
         </is>
       </c>
       <c r="X76" t="inlineStr"/>
@@ -4280,18 +4252,17 @@
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="W77" t="inlineStr">
         <is>
-          <t>@ Store,
-work w/ Jerry</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X77" t="inlineStr"/>
@@ -4320,17 +4291,18 @@
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W78" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="X78" t="inlineStr"/>
@@ -4359,18 +4331,17 @@
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="W79" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X79" t="inlineStr"/>
@@ -4399,12 +4370,12 @@
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="W80" t="inlineStr">
@@ -4414,45 +4385,6 @@
       </c>
       <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr"/>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="inlineStr"/>
-      <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="V81" t="inlineStr">
-        <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="W81" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/11-02-25 to 11-08-25 Madison Schedule.xlsx
+++ b/11-02-25 to 11-08-25 Madison Schedule.xlsx
@@ -2847,12 +2847,12 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Until 10</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
@@ -2910,7 +2910,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -2965,7 +2965,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -3075,7 +3075,7 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -3122,7 +3122,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -3169,7 +3169,7 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -3205,9 +3205,21 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
@@ -3288,11 +3300,7 @@
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
@@ -3333,7 +3341,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3376,7 +3384,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>KELLEY #65, GENOA MOBIL</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3419,7 +3427,7 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>439 W MAIN ST</t>
+          <t>KELLEY #65, GENOA MOBIL</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3458,7 +3466,7 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/WCT4tA6ALqq</t>
+          <t>439 W MAIN ST</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3509,7 +3517,7 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:45 am at IL Office</t>
+          <t>https://goo.gl/maps/WCT4tA6ALqq</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3560,7 +3568,7 @@
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+          <t>*IL Meet is 5:45 am at IL Office</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -3601,7 +3609,11 @@
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+        </is>
+      </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
@@ -3639,21 +3651,9 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
@@ -3692,18 +3692,17 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Mike G</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>@ Store,
-Until 9:30</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T62" t="inlineStr"/>
@@ -3744,18 +3743,18 @@
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>Driver,
-Red Camry</t>
+          <t>@ Store,
+Until 9:30</t>
         </is>
       </c>
       <c r="T63" t="inlineStr"/>
@@ -3796,15 +3795,20 @@
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Laci</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr"/>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry</t>
+        </is>
+      </c>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
@@ -3843,19 +3847,15 @@
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
@@ -3892,9 +3892,21 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>

--- a/11-02-25 to 11-08-25 Madison Schedule.xlsx
+++ b/11-02-25 to 11-08-25 Madison Schedule.xlsx
@@ -2772,7 +2772,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -2883,16 +2883,8 @@
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
@@ -3456,11 +3448,7 @@
           <t>6)</t>
         </is>
       </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>Laci</t>
-        </is>
-      </c>
+      <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
@@ -3850,11 +3838,7 @@
           <t>4)</t>
         </is>
       </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>Laci</t>
-        </is>
-      </c>
+      <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">

--- a/11-02-25 to 11-08-25 Madison Schedule.xlsx
+++ b/11-02-25 to 11-08-25 Madison Schedule.xlsx
@@ -1703,7 +1703,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store Pick Up Sarah at Meinke</t>
         </is>
       </c>
       <c r="L25" t="inlineStr"/>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store meet Lori at Meinke</t>
         </is>
       </c>
       <c r="L27" t="inlineStr"/>

--- a/11-02-25 to 11-08-25 Madison Schedule.xlsx
+++ b/11-02-25 to 11-08-25 Madison Schedule.xlsx
@@ -3384,7 +3384,7 @@
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr">
         <is>
-          <t>*10:15 am IL office leave time</t>
+          <t>*9:45 am IL office leave time</t>
         </is>
       </c>
       <c r="W55" t="inlineStr"/>

--- a/11-02-25 to 11-08-25 Madison Schedule.xlsx
+++ b/11-02-25 to 11-08-25 Madison Schedule.xlsx
@@ -1366,10 +1366,14 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr"/>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
@@ -1435,12 +1439,12 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>Rx</t>
+          <t>shadow Michael</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
@@ -1514,12 +1518,13 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>shadow Michael</t>
+          <t>Driver, 1/2
+Silver Van</t>
         </is>
       </c>
       <c r="T22" t="inlineStr"/>
@@ -1591,13 +1596,14 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Silver Van</t>
+Camry 3,
+Trainer</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
@@ -1661,14 +1667,14 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
           <t>Driver, 1/2
 Camry 3,
-Trainer</t>
+Supv Rx</t>
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
@@ -1730,14 +1736,12 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Camry 3,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
@@ -1805,12 +1809,13 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Celina</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+work w/ Michael</t>
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
@@ -1872,13 +1877,12 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>@ Store,
-work w/ Michael</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
@@ -1954,7 +1958,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -2029,7 +2033,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -2109,7 +2113,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -2160,7 +2164,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -2200,21 +2204,9 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
@@ -2312,7 +2304,11 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
@@ -2357,7 +2353,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2414,7 +2410,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FOX BROS PIGGLY WIGGLY #083, BEAVER DAM</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2469,7 +2465,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>FOX BROS PIGGLY WIGGLY #083, BEAVER DAM</t>
+          <t>810 PARK AVE</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2525,7 +2521,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>810 PARK AVE</t>
+          <t>https://goo.gl/maps/y8AoS99KUVU2</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2564,7 +2560,7 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/y8AoS99KUVU2</t>
+          <t>PARTIAL RESET (ONE SIDE OF FROZEN)-REMAPPED</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2609,11 +2605,7 @@
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>PARTIAL RESET (ONE SIDE OF FROZEN)-REMAPPED</t>
-        </is>
-      </c>
+      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
@@ -2667,9 +2659,21 @@
         </is>
       </c>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
@@ -2720,17 +2724,17 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Bri</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T42" t="inlineStr"/>
@@ -2783,17 +2787,17 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Until 10</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
@@ -2842,17 +2846,17 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>@ Store, Until 10</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
@@ -2897,12 +2901,12 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -2952,12 +2956,12 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -3007,12 +3011,12 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -3062,12 +3066,12 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -3109,12 +3113,12 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -3156,12 +3160,12 @@
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -3197,21 +3201,9 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
@@ -3292,7 +3284,11 @@
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
@@ -3333,7 +3329,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3376,7 +3372,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #65, GENOA MOBIL</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3419,7 +3415,7 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>KELLEY #65, GENOA MOBIL</t>
+          <t>439 W MAIN ST</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3454,7 +3450,7 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>439 W MAIN ST</t>
+          <t>https://goo.gl/maps/WCT4tA6ALqq</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3505,7 +3501,7 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/WCT4tA6ALqq</t>
+          <t>*IL Meet is 5:45 am at IL Office</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3556,7 +3552,7 @@
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:45 am at IL Office</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -3597,11 +3593,7 @@
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
-        </is>
-      </c>
+      <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
@@ -3639,9 +3631,21 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
@@ -3680,17 +3684,18 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Mike G</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store,
+Until 9:30</t>
         </is>
       </c>
       <c r="T62" t="inlineStr"/>
@@ -3731,18 +3736,18 @@
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>@ Store,
-Until 9:30</t>
+          <t>Driver,
+Red Camry</t>
         </is>
       </c>
       <c r="T63" t="inlineStr"/>
@@ -3783,20 +3788,15 @@
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
@@ -3835,11 +3835,19 @@
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
@@ -3876,21 +3884,9 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>

--- a/11-02-25 to 11-08-25 Madison Schedule.xlsx
+++ b/11-02-25 to 11-08-25 Madison Schedule.xlsx
@@ -2271,7 +2271,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2318,10 +2318,16 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Camry 3,
+Trainer</t>
+        </is>
+      </c>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
     </row>
@@ -2365,14 +2371,12 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Camry 3,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X35" t="inlineStr"/>
@@ -2422,7 +2426,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
@@ -3380,7 +3384,7 @@
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr">
         <is>
-          <t>*9:45 am IL office leave time</t>
+          <t>*IL Meet is 9:45 am at IL Office</t>
         </is>
       </c>
       <c r="W55" t="inlineStr"/>
@@ -3513,14 +3517,10 @@
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="W58" t="inlineStr">
-        <is>
-          <t>Optima</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
     </row>
@@ -3564,12 +3564,13 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Optima</t>
         </is>
       </c>
       <c r="X59" t="inlineStr"/>
@@ -3603,7 +3604,7 @@
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
@@ -3654,7 +3655,7 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
@@ -3706,7 +3707,7 @@
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
@@ -3758,7 +3759,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
@@ -3805,7 +3806,7 @@
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W64" t="inlineStr">

--- a/11-02-25 to 11-08-25 Madison Schedule.xlsx
+++ b/11-02-25 to 11-08-25 Madison Schedule.xlsx
@@ -3448,7 +3448,11 @@
           <t>6)</t>
         </is>
       </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
@@ -3497,7 +3501,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Mike G</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3537,16 +3541,8 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>

--- a/11-02-25 to 11-08-25 Madison Schedule.xlsx
+++ b/11-02-25 to 11-08-25 Madison Schedule.xlsx
@@ -3689,12 +3689,7 @@
           <t>Angela</t>
         </is>
       </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>@ Store,
-Until 9:30</t>
-        </is>
-      </c>
+      <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>

--- a/11-02-25 to 11-08-25 Madison Schedule.xlsx
+++ b/11-02-25 to 11-08-25 Madison Schedule.xlsx
@@ -1850,7 +1850,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>@ Store meet Lori at Meinke</t>
+          <t>@ Store meet Lori at Meineke</t>
         </is>
       </c>
       <c r="L27" t="inlineStr"/>

--- a/11-02-25 to 11-08-25 Madison Schedule.xlsx
+++ b/11-02-25 to 11-08-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y80"/>
+  <dimension ref="A1:Y79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2426,7 +2426,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
@@ -3750,7 +3750,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
@@ -3797,7 +3797,7 @@
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W64" t="inlineStr">
@@ -3841,21 +3841,9 @@
         </is>
       </c>
       <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="V65" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="W65" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
     </row>
@@ -3908,7 +3896,11 @@
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
@@ -3937,7 +3929,7 @@
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W68" t="inlineStr"/>
@@ -3968,7 +3960,7 @@
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FOX BROS PIGGLY WIGGLY #086, PORT WASHINGTON</t>
         </is>
       </c>
       <c r="W69" t="inlineStr"/>
@@ -3999,7 +3991,7 @@
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr">
         <is>
-          <t>FOX BROS PIGGLY WIGGLY #086, PORT WASHINGTON</t>
+          <t>101 W SEVEN HILLS RD</t>
         </is>
       </c>
       <c r="W70" t="inlineStr"/>
@@ -4030,7 +4022,7 @@
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr">
         <is>
-          <t>101 W SEVEN HILLS RD</t>
+          <t>https://goo.gl/maps/QTeeYs5i3hE2</t>
         </is>
       </c>
       <c r="W71" t="inlineStr"/>
@@ -4059,11 +4051,7 @@
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/QTeeYs5i3hE2</t>
-        </is>
-      </c>
+      <c r="V72" t="inlineStr"/>
       <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
@@ -4089,9 +4077,21 @@
       <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>Bri</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
     </row>
@@ -4118,17 +4118,17 @@
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="W74" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X74" t="inlineStr"/>
@@ -4157,17 +4157,18 @@
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Celina</t>
         </is>
       </c>
       <c r="W75" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+work w/ Jerry</t>
         </is>
       </c>
       <c r="X75" t="inlineStr"/>
@@ -4196,18 +4197,17 @@
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="W76" t="inlineStr">
         <is>
-          <t>@ Store,
-work w/ Jerry</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X76" t="inlineStr"/>
@@ -4236,17 +4236,18 @@
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W77" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="X77" t="inlineStr"/>
@@ -4275,18 +4276,17 @@
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="W78" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X78" t="inlineStr"/>
@@ -4315,12 +4315,12 @@
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="W79" t="inlineStr">
@@ -4330,45 +4330,6 @@
       </c>
       <c r="X79" t="inlineStr"/>
       <c r="Y79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr"/>
-      <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="inlineStr"/>
-      <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="V80" t="inlineStr">
-        <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="W80" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="X80" t="inlineStr"/>
-      <c r="Y80" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
